--- a/FDMT.xlsx
+++ b/FDMT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550EB3C-761C-4C5A-99F3-C32E695AEE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B23EDD-F46F-4258-BEFF-2D68D7662598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="34725" windowHeight="20565" xr2:uid="{BAC6BEAB-E1BB-4860-B12B-A965ABFE1D7F}"/>
+    <workbookView xWindow="-20040" yWindow="0" windowWidth="19095" windowHeight="20160" activeTab="1" xr2:uid="{BAC6BEAB-E1BB-4860-B12B-A965ABFE1D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="150" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -114,14 +112,65 @@
   </si>
   <si>
     <t>aflibercept gene therapy + VEGF-C RNAi</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>wet AMD</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase I/II "PRISM"</t>
+  </si>
+  <si>
+    <t>Phase III "4FRONT" n=500 wet AMD</t>
+  </si>
+  <si>
+    <t>dose expansion cohort high treatment burden</t>
+  </si>
+  <si>
+    <t>SPECTRA DME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  n=30 at 3E10vg/eye - 89% reduction in annualized injection rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2 letters gained at 24 weeks</t>
+  </si>
+  <si>
+    <t>24-week population extension cohort - presented at ASRS 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -231,10 +280,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,7 +292,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -250,8 +299,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,115 +620,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA128C-FD08-44F5-ABFD-DED0B251DDFF}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="9" max="10" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>17.63</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>33.260378000000003</v>
+        <f>51.703412+3.583476</f>
+        <v>55.286887999999998</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>586.38046414000007</v>
+        <v>686.11028007999994</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>78.569+121.885+1.405</f>
-        <v>201.85900000000001</v>
+        <v>578</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -684,67 +722,139 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>384.52146414000003</v>
+        <v>108.11028007999994</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8FD9CD-7178-4E61-B64D-4F9920CFE712}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1C9E25CB-2097-4628-8BB5-C27715FFAF24}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>